--- a/Codigos/Cap6-7/Cap6_7.xlsx
+++ b/Codigos/Cap6-7/Cap6_7.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>A</t>
   </si>
@@ -94,9 +94,6 @@
     <t>&lt;-Cin</t>
   </si>
   <si>
-    <t>Cout</t>
-  </si>
-  <si>
     <t>Grupo 1</t>
   </si>
   <si>
@@ -141,6 +138,18 @@
   <si>
     <t>Grupo 1 pode ser implementado usando um único hardware de somadores 
 mantendo o atraso</t>
+  </si>
+  <si>
+    <t>24 Aadder</t>
+  </si>
+  <si>
+    <t>5 Aadder</t>
+  </si>
+  <si>
+    <t>3 Aadder</t>
+  </si>
+  <si>
+    <t>&lt;-Cout</t>
   </si>
 </sst>
 </file>
@@ -428,9 +437,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,15 +444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,6 +543,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +688,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21926550" y="3286125"/>
+          <a:off x="21974175" y="3286125"/>
           <a:ext cx="1130400" cy="161925"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -928,7 +937,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20183475" y="3324225"/>
+          <a:off x="20231100" y="3324225"/>
           <a:ext cx="1654275" cy="180975"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -1118,7 +1127,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18843649" y="3305173"/>
+          <a:off x="18891274" y="3305173"/>
           <a:ext cx="708097" cy="149225"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -1308,7 +1317,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17640300" y="3321050"/>
+          <a:off x="17687925" y="3321050"/>
           <a:ext cx="1049434" cy="187323"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -1498,7 +1507,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16975137" y="3344863"/>
+          <a:off x="17022762" y="3344863"/>
           <a:ext cx="614460" cy="171447"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -1689,7 +1698,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14798674" y="3360738"/>
-          <a:ext cx="1676497" cy="149223"/>
+          <a:ext cx="1724122" cy="149223"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
         </a:xfrm>
@@ -2068,7 +2077,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20189825" y="4522788"/>
+          <a:off x="20237450" y="4522788"/>
           <a:ext cx="2924276" cy="288926"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -2258,7 +2267,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18178462" y="4498975"/>
+          <a:off x="18226087" y="4498975"/>
           <a:ext cx="1381225" cy="193675"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -2638,7 +2647,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20127912" y="5599113"/>
+          <a:off x="20175537" y="5599113"/>
           <a:ext cx="2924276" cy="266701"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -3208,7 +3217,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21894800" y="6653212"/>
+          <a:off x="21942425" y="6653212"/>
           <a:ext cx="1130400" cy="165100"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -3398,7 +3407,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20696237" y="6626225"/>
+          <a:off x="20743862" y="6626225"/>
           <a:ext cx="1130400" cy="165100"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -3588,7 +3597,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19477037" y="6610350"/>
+          <a:off x="19524662" y="6610350"/>
           <a:ext cx="1130400" cy="165100"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -3778,7 +3787,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18718236" y="6611936"/>
+          <a:off x="18765861" y="6611936"/>
           <a:ext cx="708097" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -3968,7 +3977,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17546638" y="6611938"/>
+          <a:off x="17594263" y="6611938"/>
           <a:ext cx="1130400" cy="165100"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -4158,7 +4167,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16927512" y="6618289"/>
+          <a:off x="16975137" y="6618289"/>
           <a:ext cx="623984" cy="155573"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -4348,7 +4357,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15760723" y="6615111"/>
+          <a:off x="15808348" y="6615111"/>
           <a:ext cx="708098" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -4539,7 +4548,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="15066962" y="6613522"/>
-          <a:ext cx="708097" cy="152400"/>
+          <a:ext cx="755722" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
         </a:xfrm>
@@ -5488,7 +5497,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22510774" y="7715248"/>
+          <a:off x="22558399" y="7715248"/>
           <a:ext cx="708097" cy="149225"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -5678,7 +5687,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21282026" y="7658097"/>
+          <a:off x="21329651" y="7658097"/>
           <a:ext cx="708097" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -5869,7 +5878,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14665324" y="7569200"/>
-          <a:ext cx="1676497" cy="139698"/>
+          <a:ext cx="1724122" cy="139698"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
         </a:xfrm>
@@ -6058,7 +6067,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22007512" y="8755062"/>
+          <a:off x="22055137" y="8755062"/>
           <a:ext cx="1130400" cy="161925"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -6248,7 +6257,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20797837" y="8682037"/>
+          <a:off x="20845462" y="8682037"/>
           <a:ext cx="1130400" cy="165100"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -6438,7 +6447,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20048539" y="8680447"/>
+          <a:off x="20096164" y="8680447"/>
           <a:ext cx="708097" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -6628,7 +6637,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17802225" y="8670925"/>
+          <a:off x="17849850" y="8670925"/>
           <a:ext cx="1676496" cy="139698"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -6818,7 +6827,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16456025" y="8662988"/>
+          <a:off x="16503650" y="8662988"/>
           <a:ext cx="1130400" cy="165100"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -7009,7 +7018,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14666911" y="8662987"/>
-          <a:ext cx="1676497" cy="139698"/>
+          <a:ext cx="1724122" cy="139698"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
         </a:xfrm>
@@ -7958,7 +7967,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22503505" y="9919663"/>
+          <a:off x="22551130" y="9919663"/>
           <a:ext cx="708096" cy="152399"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -8148,7 +8157,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18832653" y="9864997"/>
+          <a:off x="18880278" y="9864997"/>
           <a:ext cx="708097" cy="152399"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -8338,7 +8347,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17658660" y="9860792"/>
+          <a:off x="17706285" y="9860792"/>
           <a:ext cx="1130400" cy="165099"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -8528,7 +8537,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16932622" y="9868310"/>
+          <a:off x="16980247" y="9868310"/>
           <a:ext cx="708097" cy="152399"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -8908,7 +8917,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21335586" y="11181522"/>
+          <a:off x="21383211" y="11181522"/>
           <a:ext cx="1676495" cy="137213"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -9098,7 +9107,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21883273" y="12165150"/>
+          <a:off x="21930898" y="12165150"/>
           <a:ext cx="1130400" cy="164410"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -9288,7 +9297,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20650821" y="12127050"/>
+          <a:off x="20698446" y="12127050"/>
           <a:ext cx="1130401" cy="164410"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -9478,7 +9487,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19476347" y="12122080"/>
+          <a:off x="19523972" y="12122080"/>
           <a:ext cx="1130401" cy="164410"/>
           <a:chOff x="21764625" y="3133725"/>
           <a:chExt cx="1130400" cy="161925"/>
@@ -9668,7 +9677,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18769705" y="12099644"/>
+          <a:off x="18817330" y="12099644"/>
           <a:ext cx="708097" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -9858,7 +9867,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17101516" y="12116628"/>
+          <a:off x="17149141" y="12116628"/>
           <a:ext cx="1676496" cy="139698"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -10048,7 +10057,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15791279" y="12094674"/>
+          <a:off x="15838904" y="12094674"/>
           <a:ext cx="708097" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -10239,7 +10248,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="15102166" y="12097987"/>
-          <a:ext cx="708097" cy="152400"/>
+          <a:ext cx="755722" cy="152400"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
         </a:xfrm>
@@ -11568,7 +11577,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22430133" y="13195021"/>
+          <a:off x="22477758" y="13195021"/>
           <a:ext cx="708096" cy="152399"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -11948,7 +11957,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17142515" y="14239876"/>
+          <a:off x="17190140" y="14239876"/>
           <a:ext cx="5930858" cy="159991"/>
           <a:chOff x="21764625" y="3133742"/>
           <a:chExt cx="1130355" cy="161926"/>
@@ -12424,7 +12433,7 @@
   <dimension ref="A1:BA68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO49" sqref="AO49"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12435,6 +12444,7 @@
     <col min="17" max="26" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" x14ac:dyDescent="0.35">
@@ -12449,10 +12459,10 @@
     </row>
     <row r="3" spans="1:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -12461,7 +12471,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -12471,7 +12481,7 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12479,51 +12489,54 @@
         <v>15</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
+      <c r="AQ4" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
     </row>
     <row r="5" spans="1:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -12535,7 +12548,10 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
@@ -12543,10 +12559,10 @@
     </row>
     <row r="6" spans="1:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -12558,10 +12574,10 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
@@ -12569,10 +12585,10 @@
     </row>
     <row r="7" spans="1:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -12583,429 +12599,433 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
+      <c r="AM7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
     </row>
     <row r="8" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="14"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="46"/>
     </row>
     <row r="9" spans="1:53" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>23</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>22</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>21</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <v>20</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>19</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="12">
         <v>18</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="12">
         <v>17</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="12">
         <v>16</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="12">
         <v>15</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="12">
         <v>14</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="12">
         <v>13</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="12">
         <v>12</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="12">
         <v>11</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="12">
         <v>10</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="12">
         <v>9</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="12">
         <v>8</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="12">
         <v>7</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="12">
         <v>6</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="12">
         <v>5</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="12">
         <v>4</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="12">
         <v>3</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="16">
+      <c r="Y9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9903466</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="10">
-        <v>1</v>
-      </c>
-      <c r="V10" s="10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="10">
-        <v>1</v>
-      </c>
-      <c r="X10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="19">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>1</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>6873749</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>1</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0</v>
-      </c>
-      <c r="S11" s="10">
-        <v>1</v>
-      </c>
-      <c r="T11" s="10">
-        <v>0</v>
-      </c>
-      <c r="U11" s="10">
-        <v>0</v>
-      </c>
-      <c r="V11" s="10">
-        <v>1</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="22">
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>1</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>1</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="18">
         <v>1</v>
       </c>
       <c r="BA11" s="1" t="s">
@@ -13013,475 +13033,475 @@
       </c>
     </row>
     <row r="12" spans="1:53" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>132591</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0</v>
-      </c>
-      <c r="R12" s="10">
-        <v>1</v>
-      </c>
-      <c r="S12" s="10">
-        <v>1</v>
-      </c>
-      <c r="T12" s="10">
-        <v>1</v>
-      </c>
-      <c r="U12" s="10">
-        <v>1</v>
-      </c>
-      <c r="V12" s="10">
-        <v>0</v>
-      </c>
-      <c r="W12" s="10">
-        <v>1</v>
-      </c>
-      <c r="X12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="10">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="9">
         <v>1</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:53" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>6357029</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-      <c r="R13" s="10">
-        <v>0</v>
-      </c>
-      <c r="S13" s="10">
-        <v>0</v>
-      </c>
-      <c r="T13" s="10">
-        <v>0</v>
-      </c>
-      <c r="U13" s="10">
-        <v>1</v>
-      </c>
-      <c r="V13" s="10">
-        <v>0</v>
-      </c>
-      <c r="W13" s="10">
-        <v>0</v>
-      </c>
-      <c r="X13" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="10">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>1</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>1935013</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="R14" s="10">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <v>0</v>
-      </c>
-      <c r="U14" s="10">
-        <v>0</v>
-      </c>
-      <c r="V14" s="10">
-        <v>0</v>
-      </c>
-      <c r="W14" s="10">
-        <v>0</v>
-      </c>
-      <c r="X14" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="25">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="25">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="24">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="25">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="24">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="25">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="25">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="24">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="25">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="25">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="26">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:53" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>1252847</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <v>1</v>
-      </c>
-      <c r="P15" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0</v>
-      </c>
-      <c r="R15" s="10">
-        <v>1</v>
-      </c>
-      <c r="S15" s="10">
-        <v>1</v>
-      </c>
-      <c r="T15" s="10">
-        <v>1</v>
-      </c>
-      <c r="U15" s="10">
-        <v>1</v>
-      </c>
-      <c r="V15" s="10">
-        <v>0</v>
-      </c>
-      <c r="W15" s="10">
-        <v>1</v>
-      </c>
-      <c r="X15" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="23" t="s">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="9">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9">
+        <v>1</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>1</v>
+      </c>
+      <c r="X15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="28">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="29">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="29">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="27">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="28">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="29">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="27">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="28">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="28">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="27">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="28">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="28">
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="29">
+      <c r="AC15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="25">
         <v>1</v>
       </c>
       <c r="BA15" s="1" t="s">
@@ -13489,882 +13509,882 @@
       </c>
     </row>
     <row r="16" spans="1:53" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>6292482</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0</v>
-      </c>
-      <c r="U16" s="10">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10">
-        <v>0</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0</v>
-      </c>
-      <c r="X16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="10">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="9">
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16517039</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>1</v>
-      </c>
-      <c r="R17" s="10">
-        <v>1</v>
-      </c>
-      <c r="S17" s="10">
-        <v>1</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0</v>
-      </c>
-      <c r="U17" s="10">
-        <v>1</v>
-      </c>
-      <c r="V17" s="10">
-        <v>0</v>
-      </c>
-      <c r="W17" s="10">
-        <v>1</v>
-      </c>
-      <c r="X17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="10">
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>1</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1</v>
+      </c>
+      <c r="S17" s="9">
+        <v>1</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>1</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>1</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:53" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>13631968</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>1</v>
-      </c>
-      <c r="S18" s="10">
-        <v>1</v>
-      </c>
-      <c r="T18" s="10">
-        <v>1</v>
-      </c>
-      <c r="U18" s="10">
-        <v>1</v>
-      </c>
-      <c r="V18" s="10">
-        <v>0</v>
-      </c>
-      <c r="W18" s="10">
-        <v>0</v>
-      </c>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="10">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>1</v>
+      </c>
+      <c r="S18" s="9">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9">
+        <v>1</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>4194305</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <v>0</v>
-      </c>
-      <c r="U19" s="10">
-        <v>0</v>
-      </c>
-      <c r="V19" s="10">
-        <v>0</v>
-      </c>
-      <c r="W19" s="10">
-        <v>0</v>
-      </c>
-      <c r="X19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="44">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="32">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="32">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="32">
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="28">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="28">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="26">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="27">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:53" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>16194815</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
-        <v>1</v>
-      </c>
-      <c r="P20" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0</v>
-      </c>
-      <c r="R20" s="10">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10">
-        <v>1</v>
-      </c>
-      <c r="T20" s="10">
-        <v>1</v>
-      </c>
-      <c r="U20" s="10">
-        <v>1</v>
-      </c>
-      <c r="V20" s="10">
-        <v>1</v>
-      </c>
-      <c r="W20" s="10">
-        <v>1</v>
-      </c>
-      <c r="X20" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="23" t="s">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>1</v>
+      </c>
+      <c r="T20" s="9">
+        <v>1</v>
+      </c>
+      <c r="U20" s="9">
+        <v>1</v>
+      </c>
+      <c r="V20" s="9">
+        <v>1</v>
+      </c>
+      <c r="W20" s="9">
+        <v>1</v>
+      </c>
+      <c r="X20" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AC20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="35">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="35">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="35">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="35">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="33">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="34">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="34">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="35">
+      <c r="AC20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:53" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>6881280</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>0</v>
-      </c>
-      <c r="R21" s="10">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
-        <v>0</v>
-      </c>
-      <c r="V21" s="10">
-        <v>0</v>
-      </c>
-      <c r="W21" s="10">
-        <v>0</v>
-      </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="10">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
         <v>0</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:53" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>2138261</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10">
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>0</v>
-      </c>
-      <c r="R22" s="10">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <v>1</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0</v>
-      </c>
-      <c r="U22" s="10">
-        <v>0</v>
-      </c>
-      <c r="V22" s="10">
-        <v>1</v>
-      </c>
-      <c r="W22" s="10">
-        <v>0</v>
-      </c>
-      <c r="X22" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="10">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>1</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB24" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="44">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="31">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="32">
-        <v>1</v>
-      </c>
-      <c r="AS24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="32">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AX24" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="31">
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="32">
+      <c r="AB24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="28">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="28">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="26">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB25" s="23" t="s">
+      <c r="AB25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AC25" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="45">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="33">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="34">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="33">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="35">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="33">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="35">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="33">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="35">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="33">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="34">
-        <v>1</v>
-      </c>
-      <c r="AY25" s="34">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="35">
+      <c r="AC25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="41">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB26" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA26" s="1" t="s">
         <v>20</v>
@@ -14372,162 +14392,162 @@
     </row>
     <row r="28" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB29" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="36">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="46">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="37">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="37">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="38">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="36">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="38">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="36">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="37">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="38">
-        <v>1</v>
-      </c>
-      <c r="AS29" s="36">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="37">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="37">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="36">
-        <v>1</v>
-      </c>
-      <c r="AX29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="38">
+      <c r="AB29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="34">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="34">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="34">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="34">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="33">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB30" s="23" t="s">
+      <c r="AB30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="47">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="41">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="41">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="41">
-        <v>1</v>
-      </c>
-      <c r="AS30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AU30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV30" s="41">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="39">
-        <v>1</v>
-      </c>
-      <c r="AX30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AY30" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="41">
+      <c r="AC30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="37">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="37">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="35">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="36">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="37">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="35">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="35">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB31" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA31" s="1" t="s">
         <v>20</v>
@@ -14535,162 +14555,162 @@
     </row>
     <row r="33" spans="28:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="28:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB34" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="25">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="25">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="26">
-        <v>1</v>
-      </c>
-      <c r="AO34" s="24">
-        <v>1</v>
-      </c>
-      <c r="AP34" s="25">
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="26">
-        <v>1</v>
-      </c>
-      <c r="AS34" s="24">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="25">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="25">
-        <v>1</v>
-      </c>
-      <c r="AV34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="24">
-        <v>1</v>
-      </c>
-      <c r="AX34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="25">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="26">
+      <c r="AB34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="28:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB35" s="23" t="s">
+      <c r="AB35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AC35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="43">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="29">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="29">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="28">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="29">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="27">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="28">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="28">
-        <v>1</v>
-      </c>
-      <c r="AZ35" s="29">
+      <c r="AC35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="39">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="24">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ35" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="28:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB36" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA36" s="1" t="s">
         <v>20</v>
@@ -14698,162 +14718,162 @@
     </row>
     <row r="38" spans="28:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="28:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB39" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="25">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="25">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="26">
-        <v>1</v>
-      </c>
-      <c r="AO39" s="24">
-        <v>1</v>
-      </c>
-      <c r="AP39" s="25">
-        <v>1</v>
-      </c>
-      <c r="AQ39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="26">
-        <v>1</v>
-      </c>
-      <c r="AS39" s="24">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="25">
-        <v>1</v>
-      </c>
-      <c r="AU39" s="25">
-        <v>1</v>
-      </c>
-      <c r="AV39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="24">
-        <v>1</v>
-      </c>
-      <c r="AX39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="25">
-        <v>1</v>
-      </c>
-      <c r="AZ39" s="26">
+      <c r="AB39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="20">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="28:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB40" s="23" t="s">
+      <c r="AB40" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AC40" s="27">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="43">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="27">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="29">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="27">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="28">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="28">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="29">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="27">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="29">
-        <v>1</v>
-      </c>
-      <c r="AS40" s="27">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="28">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AV40" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="27">
-        <v>1</v>
-      </c>
-      <c r="AX40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AY40" s="28">
-        <v>1</v>
-      </c>
-      <c r="AZ40" s="29">
+      <c r="AC40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="39">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="25">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="28:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB41" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA41" s="1" t="s">
         <v>20</v>
@@ -14861,162 +14881,162 @@
     </row>
     <row r="44" spans="28:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="28:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB45" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="36">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="46">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="37">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="37">
-        <v>1</v>
-      </c>
-      <c r="AJ45" s="38">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="36">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="37">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="38">
-        <v>1</v>
-      </c>
-      <c r="AO45" s="36">
-        <v>1</v>
-      </c>
-      <c r="AP45" s="37">
-        <v>1</v>
-      </c>
-      <c r="AQ45" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="38">
-        <v>1</v>
-      </c>
-      <c r="AS45" s="36">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="37">
-        <v>1</v>
-      </c>
-      <c r="AU45" s="37">
-        <v>1</v>
-      </c>
-      <c r="AV45" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="36">
-        <v>1</v>
-      </c>
-      <c r="AX45" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ45" s="38">
+      <c r="AB45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="34">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="34">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="33">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="34">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="32">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="33">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="34">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="32">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="33">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="28:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB46" s="23" t="s">
+      <c r="AB46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AC46" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="40">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="47">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="41">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="41">
-        <v>0</v>
-      </c>
-      <c r="AO46" s="39">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="41">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT46" s="40">
-        <v>1</v>
-      </c>
-      <c r="AU46" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV46" s="41">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY46" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ46" s="41">
+      <c r="AC46" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="37">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="35">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="37">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="35">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="35">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="28:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB47" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA47" s="1" t="s">
         <v>20</v>
@@ -15024,162 +15044,162 @@
     </row>
     <row r="50" spans="28:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="28:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB51" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="32">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="31">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO51" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP51" s="31">
-        <v>1</v>
-      </c>
-      <c r="AQ51" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="32">
-        <v>1</v>
-      </c>
-      <c r="AS51" s="30">
-        <v>0</v>
-      </c>
-      <c r="AT51" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU51" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV51" s="32">
-        <v>0</v>
-      </c>
-      <c r="AW51" s="30">
-        <v>1</v>
-      </c>
-      <c r="AX51" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY51" s="31">
-        <v>1</v>
-      </c>
-      <c r="AZ51" s="32">
+      <c r="AB51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="28">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="27">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="27">
+        <v>1</v>
+      </c>
+      <c r="AV51" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="26">
+        <v>1</v>
+      </c>
+      <c r="AX51" s="27">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="27">
+        <v>1</v>
+      </c>
+      <c r="AZ51" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="28:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB52" s="23" t="s">
+      <c r="AB52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AC52" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="34">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="33">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AM52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="35">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="33">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="35">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="33">
-        <v>0</v>
-      </c>
-      <c r="AT52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AV52" s="35">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="33">
-        <v>0</v>
-      </c>
-      <c r="AX52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AY52" s="34">
-        <v>0</v>
-      </c>
-      <c r="AZ52" s="35">
+      <c r="AC52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="28:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB53" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA53" s="1" t="s">
         <v>20</v>
@@ -15187,162 +15207,162 @@
     </row>
     <row r="55" spans="28:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="28:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB56" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="36">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="38">
-        <v>1</v>
-      </c>
-      <c r="AG56" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="37">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="37">
-        <v>1</v>
-      </c>
-      <c r="AJ56" s="38">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="36">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="37">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN56" s="38">
-        <v>1</v>
-      </c>
-      <c r="AO56" s="36">
-        <v>1</v>
-      </c>
-      <c r="AP56" s="37">
-        <v>1</v>
-      </c>
-      <c r="AQ56" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="38">
-        <v>1</v>
-      </c>
-      <c r="AS56" s="36">
-        <v>0</v>
-      </c>
-      <c r="AT56" s="37">
-        <v>1</v>
-      </c>
-      <c r="AU56" s="37">
-        <v>1</v>
-      </c>
-      <c r="AV56" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW56" s="36">
-        <v>1</v>
-      </c>
-      <c r="AX56" s="37">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ56" s="38">
+      <c r="AB56" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="34">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="34">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="34">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="34">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV56" s="34">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="32">
+        <v>1</v>
+      </c>
+      <c r="AX56" s="33">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="33">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="28:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB57" s="23" t="s">
+      <c r="AB57" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AC57" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AF57" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AI57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AJ57" s="41">
-        <v>1</v>
-      </c>
-      <c r="AK57" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="41">
-        <v>1</v>
-      </c>
-      <c r="AO57" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AQ57" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR57" s="41">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AU57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV57" s="41">
-        <v>1</v>
-      </c>
-      <c r="AW57" s="39">
-        <v>1</v>
-      </c>
-      <c r="AX57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AY57" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ57" s="41">
+      <c r="AC57" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="37">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="37">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="36">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="37">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="35">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="36">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="35">
+        <v>1</v>
+      </c>
+      <c r="AT57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="37">
+        <v>1</v>
+      </c>
+      <c r="AW57" s="35">
+        <v>1</v>
+      </c>
+      <c r="AX57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AY57" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ57" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="28:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB58" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA58" s="1" t="s">
         <v>20</v>
@@ -15350,162 +15370,162 @@
     </row>
     <row r="60" spans="28:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="28:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB61" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI61" s="18">
-        <v>1</v>
-      </c>
-      <c r="AJ61" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK61" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL61" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="19">
-        <v>1</v>
-      </c>
-      <c r="AO61" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP61" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ61" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR61" s="19">
-        <v>1</v>
-      </c>
-      <c r="AS61" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT61" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU61" s="18">
-        <v>1</v>
-      </c>
-      <c r="AV61" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW61" s="17">
-        <v>1</v>
-      </c>
-      <c r="AX61" s="18">
-        <v>0</v>
-      </c>
-      <c r="AY61" s="18">
-        <v>1</v>
-      </c>
-      <c r="AZ61" s="19">
+      <c r="AB61" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="15">
+        <v>1</v>
+      </c>
+      <c r="AS61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="13">
+        <v>1</v>
+      </c>
+      <c r="AX61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ61" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="28:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB62" s="23" t="s">
+      <c r="AB62" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AC62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="21">
-        <v>1</v>
-      </c>
-      <c r="AE62" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF62" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="22">
-        <v>1</v>
-      </c>
-      <c r="AK62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN62" s="22">
-        <v>0</v>
-      </c>
-      <c r="AO62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR62" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AT62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV62" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ62" s="22">
+      <c r="AC62" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="28:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB63" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA63" s="1" t="s">
         <v>20</v>
@@ -15513,162 +15533,162 @@
     </row>
     <row r="65" spans="28:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="28:53" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="AB66" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG66" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI66" s="18">
-        <v>1</v>
-      </c>
-      <c r="AJ66" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK66" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL66" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="19">
-        <v>1</v>
-      </c>
-      <c r="AO66" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP66" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ66" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="19">
-        <v>1</v>
-      </c>
-      <c r="AS66" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT66" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU66" s="18">
-        <v>1</v>
-      </c>
-      <c r="AV66" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW66" s="17">
-        <v>1</v>
-      </c>
-      <c r="AX66" s="18">
-        <v>0</v>
-      </c>
-      <c r="AY66" s="18">
-        <v>1</v>
-      </c>
-      <c r="AZ66" s="19">
+      <c r="AB66" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="14">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="15">
+        <v>1</v>
+      </c>
+      <c r="AS66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="13">
+        <v>1</v>
+      </c>
+      <c r="AX66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ66" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="28:53" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB67" s="23" t="s">
+      <c r="AB67" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AC67" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="21">
-        <v>1</v>
-      </c>
-      <c r="AF67" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="20">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="20">
-        <v>1</v>
-      </c>
-      <c r="AL67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM67" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN67" s="22">
-        <v>0</v>
-      </c>
-      <c r="AO67" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="20">
-        <v>1</v>
-      </c>
-      <c r="AT67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV67" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW67" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX67" s="21">
-        <v>1</v>
-      </c>
-      <c r="AY67" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ67" s="22">
+      <c r="AC67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="17">
+        <v>1</v>
+      </c>
+      <c r="AN67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="17">
+        <v>1</v>
+      </c>
+      <c r="AY67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="28:53" ht="16.5" x14ac:dyDescent="0.35">
       <c r="AB68" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BA68" s="1" t="s">
         <v>20</v>
